--- a/biology/Zoologie/Forbestra_proceris/Forbestra_proceris.xlsx
+++ b/biology/Zoologie/Forbestra_proceris/Forbestra_proceris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Forbestra proceris est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Forbestra.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forbestra proceris a été décrit par Gustav Weymer en 1883[1].
-Noms vernaculaires
-Forbestra proceris se nomme Proceris Tigerwing en anglais.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forbestra proceris a été décrit par Gustav Weymer en 1883.
 </t>
         </is>
       </c>
@@ -541,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forbestra proceris est un papillon à corps fin, aux ailes à apex arrondi avec les ailes antérieures bien plus longues que les ailes postérieures. Les ailes sont de couleur orange et ornées de taches marron, avec aux ailes antérieures des taches jaune formant une bande dentelée séparant l'apex. Aux ailes postérieures les taches marron forment d'une part une dentelure marginale et d'autre part une bande dentelée parallèle à cette marge.
-Le revers est semblable.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forbestra proceris se nomme Proceris Tigerwing en anglais.
 </t>
         </is>
       </c>
@@ -573,12 +590,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forbestra proceris est un papillon à corps fin, aux ailes à apex arrondi avec les ailes antérieures bien plus longues que les ailes postérieures. Les ailes sont de couleur orange et ornées de taches marron, avec aux ailes antérieures des taches jaune formant une bande dentelée séparant l'apex. Aux ailes postérieures les taches marron forment d'une part une dentelure marginale et d'autre part une bande dentelée parallèle à cette marge.
+Le revers est semblable.
+</t>
         </is>
       </c>
     </row>
@@ -606,12 +627,48 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aeria proceris est présent au Brésil et au Pérou[1],[2].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aeria proceris est présent au Brésil et au Pérou,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Forbestra_proceris</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forbestra_proceris</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Forbestra proceris, sur Wikimedia CommonsForbestra proceris, sur Wikispecies
 </t>
